--- a/medicine/Mort/Nécropole_nationale_de_Dompierre/Nécropole_nationale_de_Dompierre.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Dompierre/Nécropole_nationale_de_Dompierre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Dompierre</t>
+          <t>Nécropole_nationale_de_Dompierre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale de Dompierre est un cimetière militaire de la Première Guerre mondiale situé sur le territoire de la commune de Dompierre dans le département de l'Oise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Dompierre</t>
+          <t>Nécropole_nationale_de_Dompierre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole nationale de Dompierre a été créé en 1921, pour y transférer les dépouilles de soldats français précédemment inhumées dans des cimetières militaires des environs et dans le cimetière militaire allemand de Dompierre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole nationale de Dompierre a été créé en 1921, pour y transférer les dépouilles de soldats français précédemment inhumées dans des cimetières militaires des environs et dans le cimetière militaire allemand de Dompierre.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Dompierre</t>
+          <t>Nécropole_nationale_de_Dompierre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole nationale de Dompierre, située à 800 m environ du cimetière allemand, tout à côté d'un bois, a une superficie de 0,94 ha. Elle compte 1 416 dépouilles de soldats, 1 320 en tombes individuelles et 96 en ossuaire[2]. Parmi elles, se trouvent les tombes de deux soldats britanniques tués en mars 1918 et dont les corps furent d'abord inhumés à Tricot[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole nationale de Dompierre, située à 800 m environ du cimetière allemand, tout à côté d'un bois, a une superficie de 0,94 ha. Elle compte 1 416 dépouilles de soldats, 1 320 en tombes individuelles et 96 en ossuaire. Parmi elles, se trouvent les tombes de deux soldats britanniques tués en mars 1918 et dont les corps furent d'abord inhumés à Tricot. 
 </t>
         </is>
       </c>
